--- a/build/ensino/2022/08/segundo-semestre-de-2022/mes-8-dia-28-ava-matc65.xlsx
+++ b/build/ensino/2022/08/segundo-semestre-de-2022/mes-8-dia-28-ava-matc65.xlsx
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -534,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -822,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -918,7 +918,7 @@
         <v>3</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1078,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1142,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1238,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="J27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1302,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1398,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1494,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1526,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1590,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1622,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1654,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1686,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="J41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1718,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1750,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1782,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1878,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1942,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -1974,7 +1974,7 @@
         <v>4</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/build/ensino/2022/08/segundo-semestre-de-2022/mes-8-dia-28-ava-matc65.xlsx
+++ b/build/ensino/2022/08/segundo-semestre-de-2022/mes-8-dia-28-ava-matc65.xlsx
@@ -446,7 +446,7 @@
         <v>220121411</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -458,19 +458,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +478,7 @@
         <v>219216006</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -513,28 +513,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -606,19 +606,19 @@
         <v>220215074</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -688,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -705,28 +705,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -798,31 +798,31 @@
         <v>220120072</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -830,19 +830,19 @@
         <v>221118106</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -961,28 +961,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1086,19 +1086,19 @@
         <v>219118768</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1124,25 +1124,25 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1182,19 +1182,19 @@
         <v>221120311</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1217,28 +1217,28 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1389,16 +1389,16 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1444,25 +1444,25 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1470,10 +1470,10 @@
         <v>219218353</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1645,16 +1645,16 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1665,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1694,13 +1694,13 @@
         <v>216219204</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1709,16 +1709,16 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1726,10 +1726,10 @@
         <v>220217146</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1738,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1764,13 +1764,13 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1857,28 +1857,28 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1953,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
